--- a/data/trans_orig/P16A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>94475</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77542</v>
+        <v>77352</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113978</v>
+        <v>114439</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09156968040793992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07515814293498584</v>
+        <v>0.07497349187058461</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1104737561472125</v>
+        <v>0.110920696647834</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -765,19 +765,19 @@
         <v>76788</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61533</v>
+        <v>61602</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94492</v>
+        <v>95247</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05838870386514615</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04678926165799997</v>
+        <v>0.04684197941044654</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0718512216009887</v>
+        <v>0.07242459458851472</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>171</v>
@@ -786,19 +786,19 @@
         <v>171262</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>148404</v>
+        <v>148086</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>198685</v>
+        <v>199576</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07297582416405951</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06323585184561682</v>
+        <v>0.06310049984889174</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08466096171068009</v>
+        <v>0.0850406080986907</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>937248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>917745</v>
+        <v>917284</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>954181</v>
+        <v>954371</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9084303195920601</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8895262438527877</v>
+        <v>0.889079303352166</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9248418570650148</v>
+        <v>0.9250265081294154</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1216</v>
@@ -836,19 +836,19 @@
         <v>1238325</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1220621</v>
+        <v>1219866</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1253580</v>
+        <v>1253511</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9416112961348538</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9281487783990114</v>
+        <v>0.9275754054114855</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9532107383420001</v>
+        <v>0.9531580205895535</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2158</v>
@@ -857,19 +857,19 @@
         <v>2175573</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2148150</v>
+        <v>2147259</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2198431</v>
+        <v>2198749</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9270241758359405</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9153390382893197</v>
+        <v>0.9149593919013093</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.936764148154383</v>
+        <v>0.9368995001511081</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>96822</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>79606</v>
+        <v>78901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116476</v>
+        <v>118937</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0572099317627097</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04703776529577969</v>
+        <v>0.04662072362478713</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06882334108961095</v>
+        <v>0.07027761335806484</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -982,19 +982,19 @@
         <v>95719</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77389</v>
+        <v>76944</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115974</v>
+        <v>116428</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06028873280548475</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04874341420184677</v>
+        <v>0.04846329375617831</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07304667515500864</v>
+        <v>0.07333272320835241</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>185</v>
@@ -1003,19 +1003,19 @@
         <v>192541</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>164725</v>
+        <v>164762</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>221409</v>
+        <v>221005</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05870018449029394</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05022007922150143</v>
+        <v>0.05023139158850158</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06750126699461401</v>
+        <v>0.06737805341401271</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1595572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1575918</v>
+        <v>1573457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1612788</v>
+        <v>1613493</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9427900682372903</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.931176658910389</v>
+        <v>0.9297223866419354</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9529622347042204</v>
+        <v>0.9533792763752129</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1465</v>
@@ -1053,19 +1053,19 @@
         <v>1491954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1471699</v>
+        <v>1471245</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1510284</v>
+        <v>1510729</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9397112671945153</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9269533248449915</v>
+        <v>0.9266672767916477</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9512565857981533</v>
+        <v>0.9515367062438218</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3017</v>
@@ -1074,19 +1074,19 @@
         <v>3087526</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3058658</v>
+        <v>3059062</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3115342</v>
+        <v>3115305</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9412998155097061</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9324987330053859</v>
+        <v>0.9326219465859875</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9497799207784985</v>
+        <v>0.9497686084114985</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>35423</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23902</v>
+        <v>24844</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47870</v>
+        <v>48163</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06424147617820616</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04334786144332551</v>
+        <v>0.04505603710303673</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08681441087616464</v>
+        <v>0.08734509758518064</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1199,19 +1199,19 @@
         <v>44578</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33242</v>
+        <v>33112</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60257</v>
+        <v>56803</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09356964353407449</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06977604195131541</v>
+        <v>0.069502262535877</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1264804287061272</v>
+        <v>0.1192317303119564</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>78</v>
@@ -1220,19 +1220,19 @@
         <v>80001</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64817</v>
+        <v>63707</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100210</v>
+        <v>98895</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07783557439008382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06306287557383304</v>
+        <v>0.06198288723957498</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09749760764510319</v>
+        <v>0.09621777905656213</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>515985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503538</v>
+        <v>503245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>527506</v>
+        <v>526564</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9357585238217938</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9131855891238356</v>
+        <v>0.9126549024148195</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9566521385566747</v>
+        <v>0.9549439628969635</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>409</v>
@@ -1270,19 +1270,19 @@
         <v>431834</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>416155</v>
+        <v>419609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>443170</v>
+        <v>443300</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9064303564659255</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8735195712938728</v>
+        <v>0.8807682696880436</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9302239580486845</v>
+        <v>0.9304977374641229</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>901</v>
@@ -1291,19 +1291,19 @@
         <v>947819</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>927610</v>
+        <v>928925</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>963003</v>
+        <v>964113</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9221644256099162</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9025023923548969</v>
+        <v>0.903782220943438</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9369371244261671</v>
+        <v>0.938017112760425</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>226720</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>198980</v>
+        <v>199949</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>257227</v>
+        <v>255028</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06921624668597008</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06074742996258536</v>
+        <v>0.06104324235792345</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0785301469169319</v>
+        <v>0.0778587709875703</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>207</v>
@@ -1416,19 +1416,19 @@
         <v>217084</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>189962</v>
+        <v>189069</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>248449</v>
+        <v>245442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06424134627277592</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0562150511440507</v>
+        <v>0.05595079355774964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07352302162972016</v>
+        <v>0.07263334112364482</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>434</v>
@@ -1437,19 +1437,19 @@
         <v>443804</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>404513</v>
+        <v>407314</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>486811</v>
+        <v>489116</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06669004515213445</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06078587985487535</v>
+        <v>0.06120673131518756</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07315267519894661</v>
+        <v>0.07349906509656892</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3048805</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3018298</v>
+        <v>3020497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3076545</v>
+        <v>3075576</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.93078375331403</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9214698530830682</v>
+        <v>0.9221412290124297</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9392525700374147</v>
+        <v>0.9389567576420765</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3090</v>
@@ -1487,19 +1487,19 @@
         <v>3162113</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3130748</v>
+        <v>3133755</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3189235</v>
+        <v>3190128</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9357586537272241</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9264769783702799</v>
+        <v>0.9273666588763551</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9437849488559492</v>
+        <v>0.9440492064422503</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6076</v>
@@ -1508,19 +1508,19 @@
         <v>6210918</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6167911</v>
+        <v>6165606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6250209</v>
+        <v>6247408</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9333099548478655</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9268473248010535</v>
+        <v>0.9265009349034311</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9392141201451247</v>
+        <v>0.9387932686848125</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>109996</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90361</v>
+        <v>90441</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>132417</v>
+        <v>131563</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1131840920472403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09297952149608722</v>
+        <v>0.09306151492024706</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1362539858057934</v>
+        <v>0.135375904934351</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -1872,19 +1872,19 @@
         <v>103622</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>85037</v>
+        <v>85821</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126631</v>
+        <v>126817</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07782541380621391</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06386741609133645</v>
+        <v>0.06445632290145122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09510659878426374</v>
+        <v>0.09524655620671955</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>201</v>
@@ -1893,19 +1893,19 @@
         <v>213618</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>183751</v>
+        <v>186784</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>241280</v>
+        <v>243486</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09274437247458409</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07977706115685003</v>
+        <v>0.08109397588594291</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.104753968377116</v>
+        <v>0.1057116100667403</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>861841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>839420</v>
+        <v>840274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>881476</v>
+        <v>881396</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8868159079527597</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8637460141942067</v>
+        <v>0.8646240950656491</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9070204785039129</v>
+        <v>0.9069384850797531</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1144</v>
@@ -1943,19 +1943,19 @@
         <v>1227843</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1204834</v>
+        <v>1204648</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1246428</v>
+        <v>1245644</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9221745861937861</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9048934012157362</v>
+        <v>0.9047534437932805</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9361325839086636</v>
+        <v>0.9355436770985488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1946</v>
@@ -1964,19 +1964,19 @@
         <v>2089684</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2062022</v>
+        <v>2059816</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2119551</v>
+        <v>2116518</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9072556275254159</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8952460316228839</v>
+        <v>0.8942883899332599</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.92022293884315</v>
+        <v>0.9189060241140571</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>165762</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>140636</v>
+        <v>142254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>191595</v>
+        <v>193797</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08457163000855976</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07175246639596852</v>
+        <v>0.07257763049981668</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09775138308561769</v>
+        <v>0.09887488889292785</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>149</v>
@@ -2089,19 +2089,19 @@
         <v>155521</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>133053</v>
+        <v>133516</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>182029</v>
+        <v>182750</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08877540392960685</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07595017578354009</v>
+        <v>0.07621460507582403</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.103906538419963</v>
+        <v>0.1043181774095072</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>302</v>
@@ -2110,19 +2110,19 @@
         <v>321283</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>285074</v>
+        <v>284128</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>358472</v>
+        <v>356488</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08655563680724715</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07680048802797809</v>
+        <v>0.07654569048222272</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0965744763956685</v>
+        <v>0.0960400721998094</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1794260</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1768427</v>
+        <v>1766225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1819386</v>
+        <v>1817768</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9154283699914403</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9022486169143821</v>
+        <v>0.9011251111070719</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9282475336040314</v>
+        <v>0.9274223695001833</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1481</v>
@@ -2160,19 +2160,19 @@
         <v>1596328</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1569820</v>
+        <v>1569099</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1618796</v>
+        <v>1618333</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9112245960703932</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.896093461580037</v>
+        <v>0.8956818225904928</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.92404982421646</v>
+        <v>0.923785394924176</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3180</v>
@@ -2181,19 +2181,19 @@
         <v>3390588</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3353399</v>
+        <v>3355383</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3426797</v>
+        <v>3427743</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9134443631927529</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9034255236043317</v>
+        <v>0.9039599278001907</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.923199511972022</v>
+        <v>0.9234543095177774</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>47228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33560</v>
+        <v>33203</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62735</v>
+        <v>64266</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09832418027857999</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0698682286967135</v>
+        <v>0.06912419861391482</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1306080453047538</v>
+        <v>0.1337955211555668</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -2306,19 +2306,19 @@
         <v>35815</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25372</v>
+        <v>25048</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50241</v>
+        <v>49064</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07825840442786629</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05543853985937987</v>
+        <v>0.05473158729089136</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.109778903265266</v>
+        <v>0.1072084093960158</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -2327,19 +2327,19 @@
         <v>83044</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66589</v>
+        <v>64362</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104636</v>
+        <v>104216</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08853385644790103</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07099170601970414</v>
+        <v>0.06861737059013595</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1115542632624272</v>
+        <v>0.1111059581049734</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>433104</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>417597</v>
+        <v>416066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>446772</v>
+        <v>447129</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.90167581972142</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8693919546952463</v>
+        <v>0.8662044788444332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9301317713032867</v>
+        <v>0.9308758013860852</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>377</v>
@@ -2377,19 +2377,19 @@
         <v>421839</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>407413</v>
+        <v>408590</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>432282</v>
+        <v>432606</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9217415955721338</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8902210967347342</v>
+        <v>0.8927915906039842</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9445614601406201</v>
+        <v>0.9452684127091087</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>777</v>
@@ -2398,19 +2398,19 @@
         <v>854942</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>833350</v>
+        <v>833770</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>871397</v>
+        <v>873624</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.911466143552099</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8884457367375727</v>
+        <v>0.8888940418950265</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9290082939802958</v>
+        <v>0.931382629409864</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>322987</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>287142</v>
+        <v>287507</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>364049</v>
+        <v>358212</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09465677390137091</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08415182603859675</v>
+        <v>0.08425885597490594</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1066905639331877</v>
+        <v>0.1049800712669766</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>280</v>
@@ -2523,19 +2523,19 @@
         <v>294958</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>262694</v>
+        <v>265620</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>332618</v>
+        <v>333041</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0832987439994715</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07418707130618239</v>
+        <v>0.07501334628861676</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09393418561231986</v>
+        <v>0.09405361208020097</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>574</v>
@@ -2544,19 +2544,19 @@
         <v>617945</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>565882</v>
+        <v>569199</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>668855</v>
+        <v>664914</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08887257932062888</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08138480619994976</v>
+        <v>0.08186190610277524</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09619435102826705</v>
+        <v>0.09562754162665917</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3089204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3048142</v>
+        <v>3053979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3125049</v>
+        <v>3124684</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9053432260986291</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8933094360668122</v>
+        <v>0.8950199287330234</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9158481739614032</v>
+        <v>0.915741144025094</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3002</v>
@@ -2594,19 +2594,19 @@
         <v>3246011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3208351</v>
+        <v>3207928</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3278275</v>
+        <v>3275349</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9167012560005285</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9060658143876802</v>
+        <v>0.9059463879197989</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9258129286938176</v>
+        <v>0.9249866537113832</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5903</v>
@@ -2615,19 +2615,19 @@
         <v>6335215</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6284305</v>
+        <v>6288246</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6387278</v>
+        <v>6383961</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9111274206793711</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9038056489717329</v>
+        <v>0.9043724583733408</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9186151938000502</v>
+        <v>0.9181380938972247</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>62750</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49165</v>
+        <v>48605</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79225</v>
+        <v>78620</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08318466482884845</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06517575505410939</v>
+        <v>0.06443301229294329</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1050248840815929</v>
+        <v>0.1042228610861763</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -2979,19 +2979,19 @@
         <v>71191</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55315</v>
+        <v>53208</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89081</v>
+        <v>90630</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0715732546804619</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05561202641850936</v>
+        <v>0.05349323152827329</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08955968099853585</v>
+        <v>0.09111702692607822</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>126</v>
@@ -3000,19 +3000,19 @@
         <v>133941</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110629</v>
+        <v>112776</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>157935</v>
+        <v>155127</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07658125640872963</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06325222809775649</v>
+        <v>0.06448023315767779</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09029974279476799</v>
+        <v>0.08869430711883179</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>691597</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>675122</v>
+        <v>675727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>705182</v>
+        <v>705742</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9168153351711515</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8949751159184067</v>
+        <v>0.8957771389138237</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9348242449458901</v>
+        <v>0.9355669877070567</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>830</v>
@@ -3050,19 +3050,19 @@
         <v>923469</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>905579</v>
+        <v>904030</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>939345</v>
+        <v>941452</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9284267453195381</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9104403190014642</v>
+        <v>0.9088829730739219</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.944387973581491</v>
+        <v>0.9465067684717267</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1528</v>
@@ -3071,19 +3071,19 @@
         <v>1615066</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1591072</v>
+        <v>1593880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1638378</v>
+        <v>1636231</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9234187435912704</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9097002572052331</v>
+        <v>0.9113056928811682</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9367477719022436</v>
+        <v>0.9355197668423222</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>159030</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>131579</v>
+        <v>134419</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>183138</v>
+        <v>184831</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07658965259267021</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06336945026041403</v>
+        <v>0.06473712601219229</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08820018801941747</v>
+        <v>0.0890157024000164</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>167</v>
@@ -3196,19 +3196,19 @@
         <v>175483</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>150278</v>
+        <v>151621</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>199391</v>
+        <v>203279</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08825761188103715</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07558095369139212</v>
+        <v>0.07625646153143145</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1002821677106212</v>
+        <v>0.102237406823218</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>316</v>
@@ -3217,19 +3217,19 @@
         <v>334512</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>302831</v>
+        <v>302378</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>372575</v>
+        <v>369949</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08229720533938149</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07450304408537051</v>
+        <v>0.07439156992405395</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09166151660048653</v>
+        <v>0.09101550237491307</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1917355</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1893247</v>
+        <v>1891554</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1944806</v>
+        <v>1941966</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9234103474073297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9117998119805825</v>
+        <v>0.9109842975999836</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.936630549739586</v>
+        <v>0.9352628739878077</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1741</v>
@@ -3267,19 +3267,19 @@
         <v>1812817</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1788909</v>
+        <v>1785021</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1838022</v>
+        <v>1836679</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9117423881189629</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8997178322893795</v>
+        <v>0.8977625931767822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9244190463086081</v>
+        <v>0.9237435384685687</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3544</v>
@@ -3288,19 +3288,19 @@
         <v>3730173</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3692110</v>
+        <v>3694736</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3761854</v>
+        <v>3762307</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9177027946606185</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9083384833995134</v>
+        <v>0.9089844976250869</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9254969559146294</v>
+        <v>0.925608430075946</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>39353</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27390</v>
+        <v>28758</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53380</v>
+        <v>55177</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0719588530998146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05008343978781367</v>
+        <v>0.0525848142174769</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0976077247006862</v>
+        <v>0.10089299982545</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -3413,19 +3413,19 @@
         <v>46225</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34040</v>
+        <v>34964</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60916</v>
+        <v>59883</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08417713570047539</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06198811329237693</v>
+        <v>0.06367106622152377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1109302856852635</v>
+        <v>0.1090488368611581</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -3434,19 +3434,19 @@
         <v>85578</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69115</v>
+        <v>70023</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102569</v>
+        <v>107523</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07808055876650681</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06305958028582777</v>
+        <v>0.06388837695228548</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09358242735381361</v>
+        <v>0.09810286427051311</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>507533</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>493506</v>
+        <v>491709</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>519496</v>
+        <v>518128</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9280411469001854</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9023922752993138</v>
+        <v>0.89910700017455</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9499165602121863</v>
+        <v>0.947415185782523</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>481</v>
@@ -3484,19 +3484,19 @@
         <v>502915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>488224</v>
+        <v>489257</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>515100</v>
+        <v>514176</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9158228642995246</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8890697143147366</v>
+        <v>0.8909511631388419</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.938011886707623</v>
+        <v>0.9363289337784763</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>946</v>
@@ -3505,19 +3505,19 @@
         <v>1010449</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>993458</v>
+        <v>988504</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1026912</v>
+        <v>1026004</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9219194412334932</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9064175726461864</v>
+        <v>0.901897135729487</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9369404197141723</v>
+        <v>0.9361116230477146</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>261133</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>231034</v>
+        <v>230220</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>292238</v>
+        <v>295153</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07731276747443452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06840139806658579</v>
+        <v>0.06816042822878082</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08652199665600728</v>
+        <v>0.08738488444728644</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>274</v>
@@ -3630,19 +3630,19 @@
         <v>292899</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>261489</v>
+        <v>261198</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>331413</v>
+        <v>329551</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08292480219538188</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07403228127656099</v>
+        <v>0.07394984259076559</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09382883687710242</v>
+        <v>0.09330166875151336</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>523</v>
@@ -3651,19 +3651,19 @@
         <v>554032</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>509545</v>
+        <v>507044</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>604737</v>
+        <v>603864</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08018151980480938</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07374320087744088</v>
+        <v>0.07338130205979071</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08751971739902975</v>
+        <v>0.08739346969763895</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3116485</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3085380</v>
+        <v>3082465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3146584</v>
+        <v>3147398</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9226872325255655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9134780033439928</v>
+        <v>0.9126151155527136</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9315986019334145</v>
+        <v>0.9318395717712192</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3052</v>
@@ -3701,19 +3701,19 @@
         <v>3239201</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3200687</v>
+        <v>3202549</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3270611</v>
+        <v>3270902</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9170751978046181</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9061711631228976</v>
+        <v>0.9066983312484866</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9259677187234391</v>
+        <v>0.9260501574092344</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6018</v>
@@ -3722,19 +3722,19 @@
         <v>6355686</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6304981</v>
+        <v>6305854</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6400173</v>
+        <v>6402674</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9198184801951906</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.91248028260097</v>
+        <v>0.9126065303023608</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9262567991225591</v>
+        <v>0.9266186979402091</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>46029</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33810</v>
+        <v>34240</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59151</v>
+        <v>59908</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07969761671537198</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05854171772852931</v>
+        <v>0.05928577107875249</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1024188440122821</v>
+        <v>0.1037286554213297</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>118</v>
@@ -4086,19 +4086,19 @@
         <v>66663</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55641</v>
+        <v>55420</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79507</v>
+        <v>79520</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08131712961400084</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06787309198329657</v>
+        <v>0.06760293925400671</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09698500041698169</v>
+        <v>0.09700143873901673</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>175</v>
@@ -4107,19 +4107,19 @@
         <v>112691</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96667</v>
+        <v>96678</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>133285</v>
+        <v>130769</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08064775383185942</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06917963230610637</v>
+        <v>0.06918795707464989</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09538561105537308</v>
+        <v>0.09358545851695343</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>531513</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>518391</v>
+        <v>517634</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>543732</v>
+        <v>543302</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9203023832846279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8975811559877181</v>
+        <v>0.8962713445786704</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9414582822714711</v>
+        <v>0.9407142289212476</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1305</v>
@@ -4157,19 +4157,19 @@
         <v>753122</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>740278</v>
+        <v>740265</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>764144</v>
+        <v>764365</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9186828703859992</v>
+        <v>0.9186828703859993</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9030149995830183</v>
+        <v>0.9029985612609834</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9321269080167035</v>
+        <v>0.9323970607459934</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1938</v>
@@ -4178,19 +4178,19 @@
         <v>1284636</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1264042</v>
+        <v>1266558</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1300660</v>
+        <v>1300649</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9193522461681405</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9046143889446269</v>
+        <v>0.9064145414830466</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9308203676938935</v>
+        <v>0.93081204292535</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>146949</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>122869</v>
+        <v>123352</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>177864</v>
+        <v>177194</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06587963187443553</v>
+        <v>0.06587963187443552</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05508434406026368</v>
+        <v>0.05530074936809989</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07973937312041358</v>
+        <v>0.07943886602290107</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>222</v>
@@ -4303,19 +4303,19 @@
         <v>166252</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>144253</v>
+        <v>145027</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>190826</v>
+        <v>190211</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0766159448714227</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06647803379178023</v>
+        <v>0.06683456362062851</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08794043257772803</v>
+        <v>0.08765719006711133</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>352</v>
@@ -4324,19 +4324,19 @@
         <v>313201</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>278746</v>
+        <v>280660</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>351959</v>
+        <v>351250</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07117383312256018</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06334395364004934</v>
+        <v>0.06377894567371689</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07998141113302347</v>
+        <v>0.07982044163215621</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2083617</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2052702</v>
+        <v>2053372</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2107697</v>
+        <v>2107214</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9341203681255645</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9202606268795863</v>
+        <v>0.9205611339770988</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9449156559397364</v>
+        <v>0.9446992506319003</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2697</v>
@@ -4374,19 +4374,19 @@
         <v>2003690</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1979116</v>
+        <v>1979731</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2025689</v>
+        <v>2024915</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9233840551285772</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9120595674222717</v>
+        <v>0.9123428099328887</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9335219662082194</v>
+        <v>0.9331654363793715</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4559</v>
@@ -4395,19 +4395,19 @@
         <v>4087307</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4048549</v>
+        <v>4049258</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4121762</v>
+        <v>4119848</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9288261668774398</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9200185888669766</v>
+        <v>0.9201795583678444</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9366560463599506</v>
+        <v>0.9362210543262832</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>60691</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44450</v>
+        <v>43968</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80606</v>
+        <v>79278</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08529025282684231</v>
+        <v>0.08529025282684229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06246549415331667</v>
+        <v>0.06178890824297011</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1132765119658997</v>
+        <v>0.1114096146749563</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -4520,19 +4520,19 @@
         <v>54146</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43147</v>
+        <v>42643</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67961</v>
+        <v>68760</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07368063301414207</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05871318265576498</v>
+        <v>0.05802802525716704</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09247962902430851</v>
+        <v>0.09356628070477449</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -4541,19 +4541,19 @@
         <v>114838</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93998</v>
+        <v>93904</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>139334</v>
+        <v>137322</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07939197675499642</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.064984896444209</v>
+        <v>0.06491951537188782</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09632740545277892</v>
+        <v>0.09493625528713272</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>650896</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>630981</v>
+        <v>632309</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>667137</v>
+        <v>667619</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9147097471731577</v>
+        <v>0.9147097471731575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8867234880341001</v>
+        <v>0.8885903853250439</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9375345058466832</v>
+        <v>0.9382110917570299</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>925</v>
@@ -4591,19 +4591,19 @@
         <v>680731</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>666916</v>
+        <v>666117</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>691730</v>
+        <v>692234</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9263193669858579</v>
+        <v>0.9263193669858577</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9075203709756916</v>
+        <v>0.9064337192952256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9412868173442359</v>
+        <v>0.9419719747428329</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1557</v>
@@ -4612,19 +4612,19 @@
         <v>1331626</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1307130</v>
+        <v>1309142</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1352466</v>
+        <v>1352560</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9206080232450037</v>
+        <v>0.9206080232450036</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9036725945472209</v>
+        <v>0.9050637447128674</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.935015103555791</v>
+        <v>0.9350804846281121</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>253669</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>220078</v>
+        <v>219255</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>292067</v>
+        <v>290429</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.072071307613725</v>
+        <v>0.07207130761372502</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0625275131944277</v>
+        <v>0.06229384365844547</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08298070762846411</v>
+        <v>0.08251525449382412</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>419</v>
@@ -4737,19 +4737,19 @@
         <v>287061</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>260030</v>
+        <v>258295</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>318973</v>
+        <v>317023</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07707152762283452</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06981400573439341</v>
+        <v>0.06934842851829201</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08563932237108168</v>
+        <v>0.08511597168308989</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>655</v>
@@ -4758,19 +4758,19 @@
         <v>540730</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>498484</v>
+        <v>496881</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>586268</v>
+        <v>586169</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07464213451413662</v>
+        <v>0.07464213451413661</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06881056133166759</v>
+        <v>0.06858919082866174</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08092820556642065</v>
+        <v>0.08091446424564636</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3266026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3227628</v>
+        <v>3229266</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3299617</v>
+        <v>3300440</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9279286923862751</v>
+        <v>0.927928692386275</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9170192923715359</v>
+        <v>0.917484745506176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9374724868055725</v>
+        <v>0.9377061563415546</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4927</v>
@@ -4808,19 +4808,19 @@
         <v>3437543</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3405631</v>
+        <v>3407581</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3464574</v>
+        <v>3466309</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9229284723771655</v>
+        <v>0.9229284723771654</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9143606776289184</v>
+        <v>0.9148840283169103</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9301859942656066</v>
+        <v>0.9306515714817081</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8054</v>
@@ -4829,19 +4829,19 @@
         <v>6703569</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6658031</v>
+        <v>6658130</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6745815</v>
+        <v>6747418</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9253578654858635</v>
+        <v>0.9253578654858634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9190717944335793</v>
+        <v>0.9190855357543537</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9311894386683324</v>
+        <v>0.9314108091713382</v>
       </c>
     </row>
     <row r="15">
